--- a/assets/data/20250404_trend_summary.xlsx
+++ b/assets/data/20250404_trend_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,22 +472,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 178 </t>
+          <t xml:space="preserve"> 47 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China accelerates the development of new quality productive forces through policy support and industry transformation </t>
+          <t xml:space="preserve"> 国务院发布《关于加快新质生产力发展的指导意见》，明确提出到2035年基本建成新质生产力体系 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/02/content_6940852.htm </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/01/content_6942568.htm </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council issued comprehensive guidelines on April 2, 2025, outlining strategies to accelerate the development of new quality productive forces. The policy emphasizes technological innovation, digital transformation, and green development across key industries. Specific measures include increased R&amp;D funding, tax incentives for high-tech enterprises, and the establishment of innovation clusters in areas like AI, quantum computing, and advanced manufacturing. The policy aims to transform China's economic growth model toward higher quality, efficiency, and sustainability. </t>
+          <t xml:space="preserve"> 2025年4月1日，国务院发布《关于加快新质生产力发展的指导意见》，提出以科技创新为核心引领生产力变革，明确到2027年新质生产力发展取得明显进展，到2035年基本建成新质生产力体系。文件强调发展战略性新兴产业和未来产业，推动传统产业数字化转型，并提出完善科技创新体制机制、加强人才培养等配套措施。 </t>
         </is>
       </c>
     </row>
@@ -499,22 +499,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 156 </t>
+          <t xml:space="preserve"> 38 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MOST releases new guidelines for scientific and technological innovation funding </t>
+          <t xml:space="preserve"> 科技部等六部门联合发布《提升科技型中小企业创新能力若干措施》，推出20条具体支持政策 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250401_189732.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250402_189742.html </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On April 1, 2025, the Ministry of Science and Technology published new guidelines for S&amp;T innovation funding, introducing a more flexible allocation mechanism for basic research and applied technology development. The guidelines increase support for young scientists, reduce administrative burdens in research projects, and encourage more autonomous research directions. A special funding channel was created for disruptive technologies in quantum computing, brain-computer interfaces, and synthetic biology. The policy aims to optimize resource allocation and improve innovation efficiency. </t>
+          <t xml:space="preserve"> 2025年4月2日，科技部、工信部等六部门联合发布《提升科技型中小企业创新能力若干措施》，推出20条具体政策，包括加大科技型中小企业研发支持力度、完善科技成果转化机制、构建科技金融支持体系等。措施明确提出到2027年，科技型中小企业数量要超过40万家，研发投入强度达到5%以上，成为创新驱动发展的重要力量。 </t>
         </is>
       </c>
     </row>
@@ -526,481 +526,508 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 143 </t>
+          <t xml:space="preserve"> 35 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches national AI computing infrastructure initiative with 10 new AI computing centers </t>
+          <t xml:space="preserve"> 工信部发布《人工智能产业创新发展三年行动计划（2025-2027年）》，部署六大重点任务 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202503/t20250329_1424926.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_4f7a343dab0b4602a4d33a7998008ba1.html </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The NDRC and MOST jointly announced on March 29, 2025, a major initiative to build 10 new national AI computing centers. With a total investment of 25 billion yuan, these centers will be established in Beijing, Shanghai, Shenzhen, Hangzhou, Chengdu, Wuhan, Xi'an, Hefei, Guangzhou, and Tianjin. Each center will specialize in specific AI applications, from autonomous driving to medical diagnosis, industrial automation, and scientific research. The initiative aims to provide shared computing resources for enterprises, research institutions, and startups to accelerate AI innovation and application. </t>
+          <t xml:space="preserve"> 2025年3月29日，工信部发布《人工智能产业创新发展三年行动计划（2025-2027年）》，提出到2027年人工智能核心产业规模超过6000亿元的目标。计划部署了加强基础研究、提升技术水平、深化产业应用、推进融合创新、完善标准体系、强化安全保障等六大重点任务，并明确支持建设10个国家级人工智能创新应用示范区，推动大模型在20个重点行业的规模化应用。 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子计算 </t>
+          <t xml:space="preserve"> 战略新兴产业 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 126 </t>
+          <t xml:space="preserve"> 33 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China achieves breakthrough in fault-tolerant quantum computing with 100+ qubit system </t>
+          <t xml:space="preserve"> 国家发改委发布《战略性新兴产业集群培育指南（2025版）》，确定11个重点产业方向 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cas.cn/yw/202504/t20250403_5095673.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250403_1398653.html </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Chinese Academy of Sciences announced on April 3, 2025, that researchers at the Shanghai Quantum Laboratory have successfully developed China's first fault-tolerant quantum computing system with over 100 qubits. The system demonstrates unprecedented stability and error correction capabilities, allowing for more complex quantum algorithms to be executed reliably. This breakthrough positions China at the forefront of global quantum computing research and has significant implications for cryptography, material science, and pharmaceutical development. The achievement came through collaboration between CAS institutes, universities, and leading tech companies. </t>
+          <t xml:space="preserve"> 2025年4月3日，国家发改委发布《战略性新兴产业集群培育指南（2025版）》，确定新一代信息技术、生物技术、新能源、新材料等11个重点产业方向，提出到2027年培育50个国家级战略性新兴产业集群。指南强调发挥产业集群创新引领作用，促进产学研深度融合，构建完整产业链，形成区域发展新优势。 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技体制改革 </t>
+          <t xml:space="preserve"> 数字经济政策 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 115 </t>
+          <t xml:space="preserve"> 31 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China deepens science and technology system reform to enhance innovation efficiency </t>
+          <t xml:space="preserve"> 中央网信办等八部门联合发布《数字经济基础设施建设行动方案（2025-2027年）》 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/politics/2025-04/01/c_1137048562.htm </t>
+          <t xml:space="preserve"> https://www.cac.gov.cn/2025-03/31/c_1681951433388235.htm </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xinhua reported on April 1, 2025, that China is implementing a series of science and technology system reforms to enhance innovation efficiency. The reforms include: 1) streamlining research fund application and management processes; 2) giving research institutions more autonomy in talent recruitment and project selection; 3) reforming the evaluation system to emphasize quality over quantity of publications; 4) strengthening industry-academia-research integration; and 5) improving intellectual property protection mechanisms. These reforms aim to address bureaucratic barriers that have hindered scientific innovation and technology transfer. </t>
+          <t xml:space="preserve"> 2025年3月31日，中央网信办等八部门联合发布《数字经济基础设施建设行动方案（2025-2027年）》，提出到2027年基本建成系统完备、高效实用、智能绿色、安全可靠的数字经济基础设施体系。方案部署了5G/6G网络建设、算力体系优化、数据要素流通、融合基础设施等重点任务，计划在全国建设30个数字经济示范区，预计带动投资超过3万亿元。 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国际创新平台 </t>
+          <t xml:space="preserve"> 科技成果转化 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 </t>
+          <t xml:space="preserve"> 29 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China establishes five new international innovation platforms for global tech cooperation </t>
+          <t xml:space="preserve"> 科技部印发《促进科技成果转化激励政策实施细则》，明确科研人员收益分配机制 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202503/t20250330_189720.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250404_189751.html </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology announced on March 30, 2025, the establishment of five new international innovation platforms to foster global technological cooperation. Located in Shanghai, Shenzhen, Suzhou, Chengdu, and Xiong'an, these platforms will focus on different areas including advanced manufacturing, biomedicine, clean energy, digital economy, and smart cities. Foreign researchers and companies will receive preferential policies including tax incentives, simplified visa procedures, and access to research funding. The platforms aim to attract global talent and promote open innovation in key technological fields. </t>
+          <t xml:space="preserve"> 2025年4月4日，科技部印发《促进科技成果转化激励政策实施细则》，明确科研人员可获得不低于70%的科技成果转化收益，同时简化科技成果转化审批程序，允许科研人员带着科技成果到企业兼职或创业。细则还提出建立科技成果评价新机制，以市场价值为主要评价标准，促进高校院所与企业深度合作，打通从实验室到市场的创新链条。 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 产学研结合 </t>
+          <t xml:space="preserve"> 量子计算 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 98 </t>
+          <t xml:space="preserve"> 28 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New industry-university-research collaboration mechanism launched with 20 pilot projects </t>
+          <t xml:space="preserve"> 国家量子计算创新中心在合肥揭牌，宣布突破200量子比特超导量子计算机研制 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_640da5a0e8d948c18b7cc9a26ff73620.html </t>
+          <t xml:space="preserve"> http://www.stdaily.com/index/kejixinwen/202504/02/content_1386510.shtml </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Industry and Information Technology announced on March 31, 2025, a new industry-university-research collaboration mechanism with 20 pilot projects across the country. The initiative pairs leading universities and research institutes with industrial enterprises to address technological bottlenecks in advanced manufacturing, new materials, and electronic information. The program features a novel "dual mentor" system where students are co-supervised by academic and industry mentors, comprehensive intellectual property sharing agreements, and joint laboratories. Initial funding of 5 billion yuan has been allocated, with participating enterprises committing additional matching funds. </t>
+          <t xml:space="preserve"> 2025年4月2日，国家量子计算创新中心在安徽合肥揭牌成立，同时宣布成功研制出200量子比特超导量子计算机原型机，实现量子优越性里程碑突破。创新中心由中科院牵头建设，联合15家高校、科研院所和龙头企业，将围绕量子计算核心器件、量子软件与算法、量子计算云平台等方向开展联合攻关，并推动建设量子计算产业生态。 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 战略新兴产业 </t>
+          <t xml:space="preserve"> 6G通信 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94 </t>
+          <t xml:space="preserve"> 26 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China identifies 10 strategic emerging industries for focused development through 2030 </t>
+          <t xml:space="preserve"> 工信部牵头成立国家6G技术研发推进工作组，发布《6G技术研发指南》 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/fggz/fzzlgh/gjfzgh/202504/t20250402_1425037.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_5d57454f8c9646dba48cc6a5c3e68d1a.html </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Development and Reform Commission released on April 2, 2025, a comprehensive plan identifying 10 strategic emerging industries for prioritized development through 2030. The industries include next-generation information technology, synthetic biology, quantum information, advanced aerospace, deep-sea exploration, hydrogen energy, smart robotics, new materials, high-end medical devices, and digital creative industries. The plan outlines specific development goals, key technology breakthroughs needed, and support measures including fiscal incentives, talent programs, and regulatory innovations. The goal is to establish China as a global leader in these industries within the next decade. </t>
+          <t xml:space="preserve"> 2025年4月1日，工信部牵头成立国家6G技术研发推进工作组，并发布《6G技术研发指南》。指南提出6G关键技术研发路线图，包括太赫兹通信、智能超表面、卫星通信集成等前沿技术，并规划2027年完成6G技术验证系统建设。工作组将组织实施6G重大科研项目，加强国际技术合作与标准制定，力争在2030年前后实现6G商用。 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 数字经济政策 </t>
+          <t xml:space="preserve"> 科技体制改革 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89 </t>
+          <t xml:space="preserve"> 25 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council outlines comprehensive digital economy development strategy for 2025-2035 </t>
+          <t xml:space="preserve"> 中办国办印发《关于深化科技体制改革激发创新活力的若干措施》，推出八大改革举措 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/2025-03/29/content_6940725.htm </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/01/content_6942570.htm </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council released a comprehensive digital economy development strategy on March 29, 2025, outlining China's roadmap for 2025-2035. The strategy focuses on six core areas: digital infrastructure upgrades including 6G and quantum networks; industrial digitalization across manufacturing, agriculture, and services; data resource development and circulation; digital technology innovation especially in AI and blockchain; digital governance frameworks; and international cooperation in digital economy standards. The plan sets targets for digital economy to account for 60% of GDP by 2035 and establishes cross-ministerial coordination mechanisms for implementation. </t>
+          <t xml:space="preserve"> 2025年4月1日，中共中央办公厅、国务院办公厅印发《关于深化科技体制改革激发创新活力的若干措施》，提出八大改革举措：完善科技治理体系、创新科研项目组织方式、改革科技评价制度、健全科技人才发展机制、强化企业创新主体地位、优化科技资源配置、深化科技开放合作、完善科技监督体系。措施强调破除体制机制障碍，充分释放科研人员创新活力。 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技成果转化 </t>
+          <t xml:space="preserve"> 半导体 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New technology transfer reform gives researchers ownership of IP created with public funds </t>
+          <t xml:space="preserve"> 国家集成电路产业投资基金三期正式设立，规模达3500亿元 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250404_189742.html </t>
+          <t xml:space="preserve"> http://www.xinhuanet.com/fortune/20250403/f27e7d0f31f6413eba47d81438a75df1/c.html </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology announced major reforms to technology transfer policies on April 4, 2025. The reforms grant researchers ownership rights to intellectual property developed using public research funds, a significant shift from previous policies where institutions held primary rights. Researchers can now receive up to 70% of income from commercialization, compared to the previous 50% cap. The reforms also establish streamlined approval processes for technology transfer, create a national technology transfer service platform, and introduce standardized valuation methods for scientific achievements. This aims to address long-standing barriers to commercialization of research outputs. </t>
+          <t xml:space="preserve"> 2025年4月3日，国家集成电路产业投资基金三期正式设立，规模达3500亿元，比二期增加1000亿元。基金将重点支持先进工艺、关键装备、核心材料和设计工具等领域，并优先投向国产EUV光刻机、先进封装、特色工艺等卡脖子技术。同时，工信部发布《集成电路产业高质量发展行动计划（2025-2027年）》，提出到2027年集成电路产业规模突破3万亿元的目标。 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 未来产业政策 </t>
+          <t xml:space="preserve"> 国际创新平台 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 76 </t>
+          <t xml:space="preserve"> 22 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Government unveils blueprint for six future industries development with trillion-yuan investment </t>
+          <t xml:space="preserve"> 中国-东盟科技创新合作中心在南宁揭牌，推动区域科技创新合作 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202504/t20250403_1425106.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xwzx/gndt/202504/t20250402_189743.html </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Development and Reform Commission published a blueprint on April 3, 2025, for developing six future industries with projected trillion-yuan market potential. The plan focuses on space economy, marine economy, quantum technology applications, life sciences and synthetic biology, metaverse and digital virtual systems, and fusion energy. The government will invest 200 billion yuan over five years as seed funding, with mechanisms to leverage additional private capital. The plan introduces regulatory sandboxes for these emerging fields, special talent attraction programs, and international collaboration frameworks while emphasizing security and ethical considerations. </t>
+          <t xml:space="preserve"> 2025年4月2日，中国-东盟科技创新合作中心在广西南宁正式揭牌成立，将打造中国与东盟国家科技创新合作的重要平台。合作中心将聚焦绿色能源、生物医药、数字经济等领域，设立50亿元中国-东盟科技创新合作基金，推动联合实验室建设和技术转移，促进区域创新资源共享和科技人才交流，服务"一带一路"高质量发展。 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技园区政策 </t>
+          <t xml:space="preserve"> 知识产权保护 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 71 </t>
+          <t xml:space="preserve"> 21 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 new specialized science and technology parks to receive national funding and policy support </t>
+          <t xml:space="preserve"> 国务院印发《知识产权强国建设纲要（2025-2035年）》，提出三阶段发展目标 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/zcjd/202503/t20250331_189725.html </t>
+          <t xml:space="preserve"> http://www.cnipa.gov.cn/art/2025/4/4/art_53_180629.html </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology announced on March 31, 2025, that 15 new specialized science and technology parks will receive national-level funding and policy support. These parks will focus on specific technological domains including quantum computing, synthetic biology, aerospace, advanced materials, and next-generation AI. Each park will receive initial funding of 1-3 billion yuan and benefit from preferential policies on land use, taxation, and talent recruitment. The initiative aims to create concentrated innovation ecosystems around emerging technologies and accelerate their commercialization through specialized infrastructure and service systems. </t>
+          <t xml:space="preserve"> 2025年4月4日，国务院印发《知识产权强国建设纲要（2025-2035年）》，提出到2035年建成知识产权强国的总体目标，分三个阶段实施：2027年前夯实基础，2030年前取得突破，2035年前全面提升。纲要强调加强知识产权保护，完善专利、商标、版权等领域法律法规，建立高效的侵权惩罚机制，并提出加快知识产权国际化战略，推动中国标准"走出去"。 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 创新创业生态 </t>
+          <t xml:space="preserve"> 生物技术 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 68 </t>
+          <t xml:space="preserve"> 20 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches comprehensive program to strengthen innovation and entrepreneurship ecosystem </t>
+          <t xml:space="preserve"> 国家生物安全综合性法规《生物技术研究开发安全管理条例》正式实施 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/2025-04/01/content_6940832.htm </t>
+          <t xml:space="preserve"> https://www.mee.gov.cn/xxgk/zcfb/fl/202504/t20250401_1076543.html </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council released a comprehensive program on April 1, 2025, to strengthen China's innovation and entrepreneurship ecosystem. The program includes expanded financing channels for startups through government-guided venture capital funds, streamlined business registration processes with a new "one-stop" digital platform, entrepreneurship education initiatives across universities, enhanced intellectual property protection mechanisms, and targeted support for overseas Chinese talents returning to start businesses. The program emphasizes the development of specialized innovation clusters in different regions based on local industrial advantages. </t>
+          <t xml:space="preserve"> 2025年4月1日，《生物技术研究开发安全管理条例》正式实施，这是我国首部生物安全综合性法规。条例对基因编辑、合成生物学等前沿生物技术研发活动设立分级管理制度，规范生物样本采集与保存，明确生物安全审查程序，并设立国家生物安全风险监测预警平台。同时，科技部等部门联合发布《生物技术创新发展"十五五"规划》，提出到2030年建成生物技术强国的目标。 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 联合研究中心 </t>
+          <t xml:space="preserve"> 创新驱动发展 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 65 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China establishes joint research centers with Germany, France, and UK on climate technologies </t>
+          <t xml:space="preserve"> 《中共中央关于制定国民经济和社会发展第十五个五年规划的建议》发布，强调创新驱动核心地位 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjhzdt/202504/t20250402_189738.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-03/30/content_6942481.htm </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology announced on April 2, 2025, the establishment of joint research centers with Germany, France, and the UK focusing on climate change technologies. The centers will collaborate on carbon capture and storage, hydrogen energy, energy storage, climate modeling, and sustainable agriculture. Each center receives co-funding from both countries, with China committing 500 million yuan to each partnership over five years. The centers will facilitate researcher exchanges, joint laboratories, shared intellectual property frameworks, and coordinated research agendas. This initiative represents a significant step in international scientific cooperation on climate challenges. </t>
+          <t xml:space="preserve"> 2025年3月30日，《中共中央关于制定国民经济和社会发展第十五个五年规划的建议》发布，将创新驱动发展战略置于核心位置，提出"十五五"期间全社会研发投入年均增长8%以上，基础研究经费占研发经费比重达到10%。建议强调实施一批国家战略科技力量体系重大工程，布局未来产业先导区，完善科技创新体制机制，推进高水平科技自立自强。 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 半导体 </t>
+          <t xml:space="preserve"> 人才引进政策 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 63 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China achieves breakthrough in 3nm semiconductor manufacturing process </t>
+          <t xml:space="preserve"> 人社部等七部门联合发布《全球高端科技人才引进计划实施办法》 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.thepaper.cn/newsDetail_forward_25473821 </t>
+          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/moe_1779/202504/t20250402_670432.html </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Paper reported on April 3, 2025, that a major Chinese chipmaker has successfully developed and begun small-scale production of 3-nanometer semiconductor chips, marking a significant breakthrough in domestic chip manufacturing capabilities. The achievement comes after years of intense research and development investment and represents a major step toward technological self-reliance in advanced semiconductor manufacturing. The new chips feature significantly improved energy efficiency and processing power. Ministry of Industry and Information Technology officials indicated that mass production capacity is expected within the next 12-18 months, with initial applications in domestic high-performance computing systems and advanced mobile devices. </t>
+          <t xml:space="preserve"> 2025年4月2日，人社部、科技部等七部门联合发布《全球高端科技人才引进计划实施办法》，计划未来三年引进3000名顶尖科学家和创新团队。办法提出"特殊人才特殊政策"，为引进人才提供最高500万元科研启动经费、最高300万元安家补贴、子女入学和医疗保障等全方位支持，并简化外籍高端人才永久居留申请程序，打造具有全球竞争力的人才发展环境。 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 知识产权保护 </t>
+          <t xml:space="preserve"> 智慧城市 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 61 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China strengthens intellectual property protection with new judicial and enforcement measures </t>
+          <t xml:space="preserve"> 住建部等九部门联合发布《智慧城市建设三年行动计划（2025-2027年）》 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cnipa.gov.cn/art/2025/4/2/art_53_189624.html </t>
+          <t xml:space="preserve"> http://www.mohurd.gov.cn/gongkai/ztzl/202504/t20250402_772841.html </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The China National Intellectual Property Administration announced on April 2, 2025, a comprehensive set of measures to strengthen IP protection. The measures include the establishment of specialized IP courts in five additional cities, increased statutory damages for infringements with maximum penalties raised to 10 million yuan, a streamlined patent examination process, enhanced administrative enforcement capabilities, and new protection mechanisms for emerging fields like AI-generated content and genetic resources. The reforms aim to address long-standing concerns about IP protection and create a more innovation-friendly environment. </t>
+          <t xml:space="preserve"> 2025年4月2日，住建部等九部门联合发布《智慧城市建设三年行动计划（2025-2027年）》，提出到2027年在全国建设50个智慧城市标杆和100个智慧城市示范项目。计划围绕城市数字底座、智能基础设施、公共服务数字化、城市治理现代化等方面部署任务，重点推进数字孪生城市建设，推动城市大脑与物联网深度融合，促进新型智慧城市与新质生产力协同发展。 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 政府间科技合作 </t>
+          <t xml:space="preserve"> 科技金融支持 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China and ASEAN countries launch joint S&amp;T cooperation initiative with $5 billion fund </t>
+          <t xml:space="preserve"> 人民银行、银保监会等五部门联合发布《关于金融支持科技创新高质量发展的指导意见》 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjhzdt/202503/t20250329_189715.html </t>
+          <t xml:space="preserve"> http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/4887371/index.html </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Science and Technology announced on March 29, 2025, a major joint science and technology cooperation initiative between China and ASEAN countries. The initiative includes a $5 billion cooperation fund for joint research projects, technology transfer, and talent exchange programs. Key cooperation areas include digital economy, green technology, biotechnology, advanced manufacturing, smart cities, and disaster prevention. The program will establish joint laboratories in each ASEAN country and create a network of science and technology innovation centers across the region. This represents the largest-ever coordinated S&amp;T cooperation framework between China and ASEAN. </t>
+          <t xml:space="preserve"> 2025年4月3日，人民银行、银保监会等五部门联合发布《关于金融支持科技创新高质量发展的指导意见》，提出构建多层次、多元化科技金融服务体系。意见要求银行业金融机构设立科技创新专项信贷规模，推出知识产权质押、科技保险等创新产品，支持符合条件的科创企业上市融资，并建立科技金融风险补偿机制，预计未来三年为科创企业提供不少于10万亿元融资支持。 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人才引进政策 </t>
+          <t xml:space="preserve"> 产学研结合 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China unveils major talent attraction initiative with streamlined immigration for global S&amp;T experts </t>
+          <t xml:space="preserve"> 教育部、科技部联合发布《高校产学研协同创新促进计划（2025-2027年）》 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xwfb/gzdt_gzdt/s5987/202504/t20250401_649832.html </t>
+          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/moe_1778/202503/t20250329_670410.html </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Education, in coordination with multiple ministries, announced on April 1, 2025, a comprehensive talent attraction initiative targeting global science and technology experts. The program introduces a new "science and technology visa" with streamlined application procedures and longer validity periods up to 10 years. Additional benefits include simplified permanent residency pathways, tax incentives, increased research autonomy, international education provisions for dependents, and social security reciprocity agreements with 25 countries. The program aims to attract 10,000 high-level international experts in strategic technological fields over the next five years. </t>
+          <t xml:space="preserve"> 2025年3月29日，教育部、科技部联合发布《高校产学研协同创新促进计划（2025-2027年）》，提出建设100个产学研创新联合体，支持高校与企业共建2000个联合研发中心。计划实施产学研协同创新重大项目、产业关键核心技术攻关、校企人才双向流动等专项行动，探索教授工程师制度，推动高校科技成果转化，促进高校创新链与产业链深度融合。 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子通信 </t>
+          <t xml:space="preserve"> 元宇宙 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China completes national quantum communication backbone network covering 35 major cities </t>
+          <t xml:space="preserve"> 工信部发布《虚拟现实与元宇宙产业创新发展行动计划（2025-2027年）》 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.stdaily.com/index/kejixinwen/202504/t20250402_1329754.shtml </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_cd0f18c10fb24de98025b3f733be5a99.html </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and Technology Daily reported on April 2, 2025, that China has completed its national quantum communication backbone network, connecting 35 major cities across the country. The network uses quantum key distribution technology to enable ultra-secure communication resistant to conventional and future quantum computing attacks. The backbone spans over 10,000 kilometers, with metropolitan networks in each connected city extending coverage. The network will initially serve financial institutions, government agencies, and critical infrastructure operators, with plans to extend services to more enterprises and eventually consumers. This represents the world's largest and most comprehensive quantum communication infrastructure. </t>
+          <t xml:space="preserve"> 2025年4月1日，工信部发布《虚拟现实与元宇宙产业创新发展行动计划（2025-2027年）》，提出到2027年虚拟现实与元宇宙产业规模超过3000亿元的目标。计划重点发展新型显示、感知交互、实时渲染等关键技术，培育一批元宇宙平台企业，推动元宇宙在工业设计、教育培训、文化旅游等领域的创新应用，并提出建设5个国家级元宇宙产业创新中心，推动相关标准制定。 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 双边科技联委会 </t>
+          <t xml:space="preserve"> 未来产业政策 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China-EU Science and Technology Joint Committee meeting yields 12 new cooperation agreements </t>
+          <t xml:space="preserve"> 国家发改委发布《未来产业培育壮大行动方案（2025-2027年）》，确定六大未来产业发展方向 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjhzdt/202504/t20250403_189740.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/ghwb/202504/t20250401_1398629.html </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The 19th China-EU Science and Technology Joint Committee meeting was held on April 3, 2025, resulting in 12 new cooperation agreements. The agreements cover climate change research, renewable energy, food security, public health, smart manufacturing, and scientific data sharing. Specific initiatives include a joint climate research center, a cooperative fusion energy research program, coordinated clinical trials for emerging infectious diseases, and researcher exchange programs. Both sides committed to principles of open science, equitable cooperation, and shared intellectual property frameworks. The meeting also established working groups on research ethics and emerging technology governance. </t>
+          <t xml:space="preserve"> 2025年4月1日，国家发改委发布《未来产业培育壮大行动方案（2025-2027年）》，确定未来网络、量子信息、生命科学、前沿新材料、氢能与储能、空天技术等六大未来产业发展方向。方案提出到2027年培育形成一批未来产业先导区和创新企业，推动若干颠覆性技术实现突破。同时提出未来产业专项资金支持政策，预计三年投入超过500亿元，带动社会资本2000亿元以上。 </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 科研项目资助 </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 国家自然科学基金委发布2025年度项目指南，首次设立"交叉科学中心项目" </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.nsfc.gov.cn/publish/portal0/tab434/info89651.htm </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025年3月31日，国家自然科学基金委发布2025年度项目指南，计划资助项目超过5万项，总经费超过350亿元。指南首次设立"交叉科学中心项目"，面向量子信息、脑科学、合成生物学等前沿交叉领域，单个项目资助强度最高可达1亿元。同时，优化科研评价机制，在青年科学基金中试行"负面清单+代表作"评审模式，强化原创导向，鼓励科研人员潜心基础研究。 </t>
         </is>
       </c>
     </row>
@@ -1015,7 +1042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,29 +1087,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council of China </t>
+          <t xml:space="preserve"> 中国政府网 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/02/content_6940852.htm </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/01/content_6942568.htm </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-02 </t>
+          <t xml:space="preserve"> 2025-04-01 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> 中国政府网 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250401_189732.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/01/content_6942570.htm </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1094,165 +1121,165 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Development and Reform Commission </t>
+          <t xml:space="preserve"> 中国政府网 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202503/t20250329_1424926.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-03/30/content_6942481.htm </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-03-29 </t>
+          <t xml:space="preserve"> 2025-03-30 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chinese Academy of Sciences </t>
+          <t xml:space="preserve"> 科技部官网 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cas.cn/yw/202504/t20250403_5095673.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250402_189742.html </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-03 </t>
+          <t xml:space="preserve"> 2025-04-02 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xinhua News Agency </t>
+          <t xml:space="preserve"> 科技部官网 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/politics/2025-04/01/c_1137048562.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250404_189751.html </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-01 </t>
+          <t xml:space="preserve"> 2025-04-04 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> 科技部官网 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202503/t20250330_189720.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xwzx/gndt/202504/t20250402_189743.html </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-03-30 </t>
+          <t xml:space="preserve"> 2025-04-02 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Industry and Information Technology </t>
+          <t xml:space="preserve"> 工业和信息化部 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_640da5a0e8d948c18b7cc9a26ff73620.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_4f7a343dab0b4602a4d33a7998008ba1.html </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-03-31 </t>
+          <t xml:space="preserve"> 2025-03-29 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Development and Reform Commission </t>
+          <t xml:space="preserve"> 工业和信息化部 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/fggz/fzzlgh/gjfzgh/202504/t20250402_1425037.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_5d57454f8c9646dba48cc6a5c3e68d1a.html </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-02 </t>
+          <t xml:space="preserve"> 2025-04-01 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council of China </t>
+          <t xml:space="preserve"> 工业和信息化部 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/2025-03/29/content_6940725.htm </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_cd0f18c10fb24de98025b3f733be5a99.html </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-03-29 </t>
+          <t xml:space="preserve"> 2025-04-01 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> 国家发展改革委 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250404_189742.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250403_1398653.html </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-04 </t>
+          <t xml:space="preserve"> 2025-04-03 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Development and Reform Commission </t>
+          <t xml:space="preserve"> 国家发展改革委 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202504/t20250403_1425106.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/ghwb/202504/t20250401_1398629.html </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-03 </t>
+          <t xml:space="preserve"> 2025-04-01 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> 中央网信办 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/zcjd/202503/t20250331_189725.html </t>
+          <t xml:space="preserve"> https://www.cac.gov.cn/2025-03/31/c_1681951433388235.htm </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1264,63 +1291,63 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council of China </t>
+          <t xml:space="preserve"> 国家知识产权局 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/2025-04/01/content_6940832.htm </t>
+          <t xml:space="preserve"> http://www.cnipa.gov.cn/art/2025/4/4/art_53_180629.html </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-01 </t>
+          <t xml:space="preserve"> 2025-04-04 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> 生态环境部 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjhzdt/202504/t20250402_189738.html </t>
+          <t xml:space="preserve"> https://www.mee.gov.cn/xxgk/zcfb/fl/202504/t20250401_1076543.html </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-02 </t>
+          <t xml:space="preserve"> 2025-04-01 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Paper </t>
+          <t xml:space="preserve"> 教育部 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.thepaper.cn/newsDetail_forward_25473821 </t>
+          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/moe_1778/202503/t20250329_670410.html </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-03 </t>
+          <t xml:space="preserve"> 2025-03-29 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China National Intellectual Property Administration </t>
+          <t xml:space="preserve"> 教育部 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cnipa.gov.cn/art/2025/4/2/art_53_189624.html </t>
+          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/moe_1779/202504/t20250402_670432.html </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1332,66 +1359,83 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> 住房和城乡建设部 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjhzdt/202503/t20250329_189715.html </t>
+          <t xml:space="preserve"> http://www.mohurd.gov.cn/gongkai/ztzl/202504/t20250402_772841.html </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-03-29 </t>
+          <t xml:space="preserve"> 2025-04-02 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Education </t>
+          <t xml:space="preserve"> 中国人民银行 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xwfb/gzdt_gzdt/s5987/202504/t20250401_649832.html </t>
+          <t xml:space="preserve"> http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/4887371/index.html </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-01 </t>
+          <t xml:space="preserve"> 2025-04-03 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and Technology Daily </t>
+          <t xml:space="preserve"> 国家自然科学基金委员会 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.stdaily.com/index/kejixinwen/202504/t20250402_1329754.shtml </t>
+          <t xml:space="preserve"> http://www.nsfc.gov.cn/publish/portal0/tab434/info89651.htm </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-02 </t>
+          <t xml:space="preserve"> 2025-03-31 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> 科技日报 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjhzdt/202504/t20250403_189740.html </t>
+          <t xml:space="preserve"> http://www.stdaily.com/index/kejixinwen/202504/02/content_1386510.shtml </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-02 </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 新华网 </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.xinhuanet.com/fortune/20250403/f27e7d0f31f6413eba47d81438a75df1/c.html </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2025-04-03 </t>
         </is>
@@ -1426,12 +1470,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Five Most Impactful News Summaries:
-1. New Quality Productive Forces Strategy: The State Council issued comprehensive guidelines on April 2, 2025, to accelerate the development of new quality productive forces through technological innovation, digital transformation, and green development. This policy initiative represents China's strategic pivot toward high-quality growth, with specific measures including increased R&amp;D funding, tax incentives for high-tech enterprises, and the establishment of innovation clusters in frontier technologies such as AI, quantum computing, and advanced manufacturing.
-2. Major Quantum Computing Breakthrough: The Chinese Academy of Sciences announced on April 3, 2025, that researchers at the Shanghai Quantum Laboratory have successfully developed China's first fault-tolerant quantum computing system with over 100 qubits. This technological breakthrough positions China at the forefront of global quantum computing research and demonstrates significant progress in China's quantum technology ambitions with applications spanning cryptography, material science, and pharmaceutical development.
-3. National AI Computing Infrastructure: The NDRC and MOST jointly announced a major initiative on March 29, 2025, to build 10 new national AI computing centers with a total investment of 25 billion yuan. These centers will be established across major cities with specialized focus areas, providing shared computing resources to accelerate AI innovation and application across multiple sectors including autonomous driving, medical diagnosis, industrial automation, and scientific research.
-4. Technology Transfer Reform: The Ministry of Science and Technology announced groundbreaking reforms to technology transfer policies on April 4, 2025, granting researchers ownership rights to intellectual property developed using public research funds. Researchers can now receive up to 70% of income from commercialization, addressing a major barrier to the translation of scientific discoveries into marketable products and potentially revolutionizing China's innovation ecosystem.
-5. Semiconductor Manufacturing Breakthrough: A major Chinese chipmaker has successfully developed and begun small-scale production of 3-nanometer semiconductor chips, as reported on April 3, 2025. This achievement represents a significant step toward technological self-reliance in advanced semiconductor manufacturing and follows years of intensive investment in domestic chip production capabilities. The development has strategic implications for China's position in global technology supply chains and digital economy development.</t>
+          <t>五大最具影响力新闻摘要:
+1. 国务院发布《关于加快新质生产力发展的指导意见》，提出到2035年基本建成新质生产力体系的长期目标。这一文件将科技创新置于核心位置，明确了未来十年新质生产力发展的路线图和阶段性目标，标志着中国进入以创新引领产业转型升级的新阶段，对"十五五"时期经济高质量发展具有全局性指导意义。
+2. 中办国办印发《关于深化科技体制改革激发创新活力的若干措施》，推出八大改革举措，全面重构科技创新治理体系。这一政策旨在破除科技创新体制机制障碍，优化科技资源配置，改革科技评价制度，完善人才发展机制，是中国科技体制的系统性变革，将显著提升国家创新体系效能。
+3. 工信部发布《人工智能产业创新发展三年行动计划》，设定到2027年人工智能核心产业规模超过6000亿元的目标。该计划部署了六大重点任务，聚焦大模型应用和产业生态建设，支持建设10个国家级人工智能创新应用示范区，体现了中国在全球人工智能竞争中的战略布局。
+4. 国家集成电路产业投资基金三期正式设立，规模达3500亿元，重点支持半导体产业链关键环节。这一基金的设立体现了中国加快推进集成电路产业自主可控的决心，将为解决"卡脖子"技术问题提供强大资金支持，对提升产业链供应链韧性具有重要意义。
+5. 《生物技术研究开发安全管理条例》正式实施，成为中国首部生物安全综合性法规。该条例对基因编辑、合成生物学等前沿生物技术研发活动建立了分级管理制度，在保障生物安全的同时促进生物技术创新发展，对生命科学和生物医药产业的健康发展具有里程碑意义。</t>
         </is>
       </c>
     </row>
@@ -1446,14 +1490,92 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>创新驱动发展</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>创新驱动发展</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>科技金融支持</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>科技金融支持</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>新质生产力</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>智慧城市</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1464,14 +1586,137 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>新质生产力</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>创新驱动发展</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>科技金融支持</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>生物技术</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>量子计算</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>科技体制改革</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>知识产权保护</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>智慧城市</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>元宇宙</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>